--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DE082B-5513-4E33-9CE9-6024728C542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9E7D6F-217A-432C-B930-F7A51D2FC91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="113">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -172,10 +172,6 @@
   </si>
   <si>
     <t>核心貸方金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳記號=2－準銷帳科目(入銷帳在核心系統與放款系統分開處理)，ex:暫付及待結轉帳項－火險保費，需將核心出帳的借方金額寫入，餘額才可正確計算。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -421,19 +417,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>00A：傳統帳冊                           201:利變年金帳冊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AcSubBookCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode,AcSubBookCode,BranchNo,CurrencyCode,AcNoCode,AcSubCode,AcDtlCode,AcDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>000：全公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -443,6 +431,43 @@
   <si>
     <t>AcDate,AcSubBookCode</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>000:全公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳記號=2－準銷帳科目(入銷帳在核心系統與放款系統分開處理)，ex：暫付及待結轉帳項－火險保費，需將核心出帳的借方金額寫入，餘額才可正確計算。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+201:利變年金帳冊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+301:利變年金帳冊</t>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+401:利變年金帳冊</t>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+801:利變年金帳冊</t>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+901:利變年金帳冊</t>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+1001:利變年金帳冊</t>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+1101:利變年金帳冊</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1220,10 +1245,10 @@
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1248,10 +1273,10 @@
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
@@ -1274,7 +1299,7 @@
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="11"/>
@@ -1287,7 +1312,7 @@
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="11"/>
@@ -1310,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1333,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>12</v>
@@ -1354,10 +1379,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>12</v>
@@ -1367,7 +1392,7 @@
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1394,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>15</v>
@@ -1416,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>12</v>
@@ -1426,7 +1451,7 @@
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1434,10 +1459,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>12</v>
@@ -1447,7 +1472,7 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1455,10 +1480,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>12</v>
@@ -1468,7 +1493,7 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1482,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="29">
         <v>8</v>
@@ -1498,10 +1523,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="29">
         <v>16</v>
@@ -1519,10 +1544,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="29">
         <v>16</v>
@@ -1543,7 +1568,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="29">
         <v>8</v>
@@ -1562,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="29">
         <v>16</v>
@@ -1583,7 +1608,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="29">
         <v>8</v>
@@ -1602,7 +1627,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="29">
         <v>16</v>
@@ -1623,14 +1648,14 @@
         <v>34</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="29">
         <v>8</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="44" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1644,7 +1669,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="29">
         <v>16</v>
@@ -1665,7 +1690,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="29">
         <v>8</v>
@@ -1684,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="29">
         <v>16</v>
@@ -1699,10 +1724,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>12</v>
@@ -1712,7 +1737,7 @@
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="28" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,20 +1745,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>81</v>
-      </c>
       <c r="D28" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="32">
         <v>6</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1741,13 +1766,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="30"/>
@@ -1757,10 +1782,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>12</v>
@@ -1775,13 +1800,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="D31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="30"/>
@@ -1791,10 +1816,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>12</v>
@@ -1828,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -1854,57 +1879,57 @@
     </row>
     <row r="2" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1932,30 +1957,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="34" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
